--- a/MissFrame/LuBan/Config/Datas/ProjectExcel/MissionStep.xlsx
+++ b/MissFrame/LuBan/Config/Datas/ProjectExcel/MissionStep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210" activeTab="3"/>
+    <workbookView windowWidth="25600" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Step" sheetId="1" r:id="rId1"/>
@@ -16,8 +16,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>MissYi</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>MissYi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+枚举类型对应《_enums》表
+1：显示隐藏
+2：显示特效轨迹</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>MissYi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+triggerId根据triggerType去对应表中取对应id的数据
+Active：对应表：Active
+ShowEffectPath：对应表：ShowEffectPath</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
   <si>
     <t>##var</t>
   </si>
@@ -28,13 +86,10 @@
     <t>desc</t>
   </si>
   <si>
-    <t>effectId</t>
-  </si>
-  <si>
     <t>childStepIdList</t>
   </si>
   <si>
-    <t>StepType</t>
+    <t>delay</t>
   </si>
   <si>
     <t>##type</t>
@@ -49,76 +104,58 @@
     <t>(list#sep=,),int</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>##comment</t>
+  </si>
+  <si>
+    <t>步骤id</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>子步骤id列表</t>
+  </si>
+  <si>
+    <t>从上一个步骤到该步骤所延迟执行的时间（s/秒）</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>描述1</t>
+  </si>
+  <si>
+    <t>101,102,103</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>描述2</t>
+  </si>
+  <si>
+    <t>201,202,203</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>prepositionStepIdList</t>
+  </si>
+  <si>
+    <t>nextStepIdList</t>
+  </si>
+  <si>
+    <t>triggerType</t>
+  </si>
+  <si>
+    <t>triggerId</t>
+  </si>
+  <si>
     <t>Trigger.StepShowType</t>
-  </si>
-  <si>
-    <t>##comment</t>
-  </si>
-  <si>
-    <t>步骤id</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>特效id</t>
-  </si>
-  <si>
-    <t>子步骤id列表</t>
-  </si>
-  <si>
-    <t>步骤触发类型</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>描述1</t>
-  </si>
-  <si>
-    <t>101,102</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>描述2</t>
-  </si>
-  <si>
-    <t>201,202,203</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>描述3</t>
-  </si>
-  <si>
-    <t>301,302,303</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>描述4</t>
-  </si>
-  <si>
-    <t>401,402,403</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>prepositionStepIdList</t>
-  </si>
-  <si>
-    <t>nextStepIdList</t>
-  </si>
-  <si>
-    <t>triggerType</t>
-  </si>
-  <si>
-    <t>triggerId</t>
   </si>
   <si>
     <t>子步骤id</t>
@@ -140,19 +177,31 @@
 表现id配置</t>
   </si>
   <si>
-    <t>显示对象1</t>
+    <t>显示对象——101</t>
   </si>
   <si>
     <t>Active</t>
   </si>
   <si>
-    <t>播放特效路径</t>
+    <t>播放特效路径——102</t>
   </si>
   <si>
     <t>ShowEffectPath</t>
   </si>
   <si>
-    <t>显示对象2</t>
+    <t>显示对象——103</t>
+  </si>
+  <si>
+    <t>播放特效路径——201</t>
+  </si>
+  <si>
+    <t>202,203</t>
+  </si>
+  <si>
+    <t>显示对象——202</t>
+  </si>
+  <si>
+    <t>显示对象——203</t>
   </si>
   <si>
     <t>rootName</t>
@@ -188,6 +237,15 @@
     <t>Node2/obj2</t>
   </si>
   <si>
+    <t>Active——3</t>
+  </si>
+  <si>
+    <t>obj3</t>
+  </si>
+  <si>
+    <t>obj4</t>
+  </si>
+  <si>
     <t>effectResID</t>
   </si>
   <si>
@@ -203,12 +261,6 @@
     <t>pathPointArray</t>
   </si>
   <si>
-    <t>onEndStepIdList</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>(array#sep=|),vector3</t>
   </si>
   <si>
@@ -230,13 +282,16 @@
     <t>路径点</t>
   </si>
   <si>
-    <t>特效到达终点后执行的步骤id</t>
-  </si>
-  <si>
-    <t>进攻B点</t>
+    <t>特效轨迹——1</t>
   </si>
   <si>
     <t>-3.82,0,-2.25|2.93,0,-2.25|10.81,0,-2.25|5.9,-6.01,-6.69|-0.94,-6.01,-6.69|-8.2,-6.01,-6.69|-8.2,-6.01,2.68|-1.7,3.6,2.68</t>
+  </si>
+  <si>
+    <t>特效轨迹——2</t>
+  </si>
+  <si>
+    <t>-5.82,0,-2.25|3.63,0,-2.25|10.81,0,-2.25|9,-6.01,-6.69|-0.94,-6.01,-6.69|-2,-6.01,-6.69|-8.2,-6.01,2.68|-1.7,3.6,2.68</t>
   </si>
 </sst>
 </file>
@@ -249,7 +304,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +455,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -858,30 +924,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1231,23 +1306,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.2727272727273" customWidth="1"/>
     <col min="2" max="2" width="16.4545454545455" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.4545454545455" customWidth="1"/>
-    <col min="4" max="4" width="16.4545454545455" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.0909090909091" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.8181818181818" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.0909090909091" style="7" customWidth="1"/>
+    <col min="5" max="5" width="21.0909090909091" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1257,123 +1331,83 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="3" ht="42" spans="1:5">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+    </row>
+    <row r="4" s="7" customFormat="1" spans="2:5">
+      <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" s="5" customFormat="1" spans="2:6">
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6">
-        <v>1001</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1002</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1003</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1004</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="8"/>
+      <c r="C6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1388,12 +1422,13 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="11" width="21.0909090909091" style="1" customWidth="1"/>
+    <col min="1" max="7" width="21.0909090909091" style="1" customWidth="1"/>
+    <col min="9" max="11" width="21.0909090909091" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="53" customHeight="1" spans="1:7">
@@ -1401,145 +1436,198 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="53" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" ht="53" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="53" customHeight="1" spans="1:11">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="53" customHeight="1" spans="1:11">
       <c r="A4" s="4"/>
       <c r="B4" s="4">
         <v>101</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4">
         <v>102</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G4" s="4">
         <v>1</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="53" customHeight="1" spans="1:11">
+    <row r="5" s="3" customFormat="1" ht="53" customHeight="1" spans="1:11">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
         <v>102</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D5" s="4">
         <v>101</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4">
+        <v>103</v>
+      </c>
       <c r="F5" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="53" customHeight="1" spans="1:11">
+    <row r="6" s="3" customFormat="1" ht="53" customHeight="1" spans="1:11">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>103</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="D6" s="4">
+        <v>102</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G6" s="4">
         <v>2</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" ht="53" customHeight="1"/>
-    <row r="8" ht="53" customHeight="1"/>
-    <row r="9" ht="53" customHeight="1"/>
+    <row r="7" ht="53" customHeight="1" spans="2:7">
+      <c r="B7" s="1">
+        <v>201</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="53" customHeight="1" spans="2:7">
+      <c r="B8" s="1">
+        <v>202</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1">
+        <v>201</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" ht="53" customHeight="1" spans="2:7">
+      <c r="B9" s="1">
+        <v>203</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1">
+        <v>201</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+    </row>
     <row r="10" ht="53" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1549,7 +1637,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1565,53 +1653,53 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" ht="38" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" ht="38" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" ht="38" customHeight="1" spans="2:6">
@@ -1619,13 +1707,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>1</v>
@@ -1636,20 +1724,52 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="38" customHeight="1"/>
-    <row r="7" ht="38" customHeight="1"/>
+    <row r="6" ht="38" customHeight="1" spans="2:6">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="38" customHeight="1" spans="2:6">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="8" ht="38" customHeight="1"/>
     <row r="9" ht="38" customHeight="1"/>
     <row r="10" ht="38" customHeight="1"/>
@@ -1668,13 +1788,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="3" width="15.6363636363636" style="1" customWidth="1"/>
     <col min="4" max="4" width="48.9090909090909" style="1" customWidth="1"/>
@@ -1682,16 +1802,15 @@
     <col min="6" max="6" width="26.1818181818182" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.6363636363636" style="1" customWidth="1"/>
     <col min="8" max="8" width="46.9090909090909" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29.4545454545455" style="1" customWidth="1"/>
-    <col min="10" max="14" width="15.6363636363636" style="1" customWidth="1"/>
+    <col min="9" max="13" width="15.6363636363636" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38" customHeight="1" spans="1:9">
+    <row r="1" ht="38" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1711,74 +1830,65 @@
       <c r="H1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" ht="38" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" ht="38" customHeight="1" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
+    <row r="3" ht="38" customHeight="1" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="38" customHeight="1" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" ht="38" customHeight="1" spans="2:9">
+    </row>
+    <row r="4" ht="38" customHeight="1" spans="2:8">
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1793,14 +1903,34 @@
       <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="1">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" ht="38" customHeight="1"/>
+      <c r="H4" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" ht="38" customHeight="1" spans="2:8">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <f>G5/F5</f>
+        <v>40</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="6" ht="38" customHeight="1"/>
     <row r="7" ht="38" customHeight="1"/>
     <row r="8" ht="38" customHeight="1"/>

--- a/MissFrame/LuBan/Config/Datas/ProjectExcel/MissionStep.xlsx
+++ b/MissFrame/LuBan/Config/Datas/ProjectExcel/MissionStep.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="28800" windowHeight="12410" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Step" sheetId="1" r:id="rId1"/>
     <sheet name="SubStep" sheetId="2" r:id="rId2"/>
     <sheet name="Active" sheetId="3" r:id="rId3"/>
     <sheet name="ShowEffectPath" sheetId="5" r:id="rId4"/>
+    <sheet name="TweenLookAt" sheetId="6" r:id="rId5"/>
+    <sheet name="TweenMove" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -42,7 +44,9 @@
           <t xml:space="preserve">
 枚举类型对应《_enums》表
 1：显示隐藏
-2：显示特效轨迹</t>
+2：显示特效轨迹
+3：看向目标
+4：移动至目标</t>
         </r>
       </text>
     </comment>
@@ -64,9 +68,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-triggerId根据triggerType去对应表中取对应id的数据
-Active：对应表：Active
-ShowEffectPath：对应表：ShowEffectPath</t>
+triggerId根据triggerType去对应名称的表中取对应的id数据
+</t>
         </r>
       </text>
     </comment>
@@ -75,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="93">
   <si>
     <t>##var</t>
   </si>
@@ -138,6 +141,12 @@
   </si>
   <si>
     <t>201,202,203</t>
+  </si>
+  <si>
+    <t>描述3</t>
+  </si>
+  <si>
+    <t>302</t>
   </si>
   <si>
     <t>id</t>
@@ -204,6 +213,18 @@
     <t>显示对象——203</t>
   </si>
   <si>
+    <t>看向目标——301</t>
+  </si>
+  <si>
+    <t>TweenLookAt</t>
+  </si>
+  <si>
+    <t>移动到某一点——302</t>
+  </si>
+  <si>
+    <t>TweenMove</t>
+  </si>
+  <si>
     <t>rootName</t>
   </si>
   <si>
@@ -292,6 +313,51 @@
   </si>
   <si>
     <t>-5.82,0,-2.25|3.63,0,-2.25|10.81,0,-2.25|9,-6.01,-6.69|-0.94,-6.01,-6.69|-2,-6.01,-6.69|-8.2,-6.01,2.68|-1.7,3.6,2.68</t>
+  </si>
+  <si>
+    <t>rootTargetName</t>
+  </si>
+  <si>
+    <t>targetRelativePath</t>
+  </si>
+  <si>
+    <t>operaRootName</t>
+  </si>
+  <si>
+    <t>operaRelativePath</t>
+  </si>
+  <si>
+    <t>看向对象的根名称</t>
+  </si>
+  <si>
+    <t>操作对象的根名称</t>
+  </si>
+  <si>
+    <t>所需时间</t>
+  </si>
+  <si>
+    <t>看向目标——1</t>
+  </si>
+  <si>
+    <t>MoveTarget</t>
+  </si>
+  <si>
+    <t>relativeTargetPath</t>
+  </si>
+  <si>
+    <t>rootOperaName</t>
+  </si>
+  <si>
+    <t>relativeOperaPath</t>
+  </si>
+  <si>
+    <t>目标对象的根名称</t>
+  </si>
+  <si>
+    <t>移动至目标——1</t>
+  </si>
+  <si>
+    <t>lookPoint_1</t>
   </si>
 </sst>
 </file>
@@ -457,12 +523,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -924,7 +990,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -950,6 +1016,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1308,8 +1377,10 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1401,10 +1472,18 @@
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="8"/>
-      <c r="C6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="8"/>
@@ -1419,42 +1498,45 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="53" customHeight="1"/>
   <cols>
     <col min="1" max="7" width="21.0909090909091" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.0909090909091" customWidth="1"/>
     <col min="9" max="11" width="21.0909090909091" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="53" customHeight="1" spans="1:7">
+    <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" ht="53" customHeight="1" spans="1:7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1471,49 +1553,49 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="53" customHeight="1" spans="1:7">
+    <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="53" customHeight="1" spans="1:11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" customHeight="1" spans="1:11">
       <c r="A4" s="4"/>
       <c r="B4" s="4">
         <v>101</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4">
         <v>102</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4" s="4">
         <v>1</v>
@@ -1523,13 +1605,13 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" s="3" customFormat="1" ht="53" customHeight="1" spans="1:11">
+    <row r="5" s="3" customFormat="1" customHeight="1" spans="1:11">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
         <v>102</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="4">
         <v>101</v>
@@ -1538,7 +1620,7 @@
         <v>103</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
@@ -1548,20 +1630,20 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" s="3" customFormat="1" ht="53" customHeight="1" spans="1:11">
+    <row r="6" s="3" customFormat="1" customHeight="1" spans="1:11">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>103</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" s="4">
         <v>102</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" s="4">
         <v>2</v>
@@ -1571,58 +1653,85 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" ht="53" customHeight="1" spans="2:7">
+    <row r="7" customHeight="1" spans="2:7">
       <c r="B7" s="1">
         <v>201</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="G7" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="8" ht="53" customHeight="1" spans="2:7">
+    <row r="8" customHeight="1" spans="2:7">
       <c r="B8" s="1">
         <v>202</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1">
         <v>201</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="9" ht="53" customHeight="1" spans="2:7">
+    <row r="9" customHeight="1" spans="2:7">
       <c r="B9" s="1">
         <v>203</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1">
         <v>201</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="10" ht="53" customHeight="1"/>
+    <row r="10" customHeight="1" spans="2:7">
+      <c r="B10" s="1">
+        <v>301</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="2:7">
+      <c r="B11" s="1">
+        <v>302</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1637,7 +1746,9 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1653,19 +1764,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" ht="38" customHeight="1" spans="1:6">
@@ -1685,7 +1796,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="38" customHeight="1" spans="1:5">
@@ -1696,10 +1807,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" ht="38" customHeight="1" spans="2:6">
@@ -1707,13 +1818,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>1</v>
@@ -1724,13 +1835,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>1</v>
@@ -1741,13 +1852,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>1</v>
@@ -1758,13 +1869,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F7" s="1" t="b">
         <v>1</v>
@@ -1791,7 +1902,9 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1810,25 +1923,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" ht="38" customHeight="1" spans="1:8">
@@ -1854,7 +1967,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" ht="38" customHeight="1" spans="1:8">
@@ -1862,25 +1975,25 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" ht="38" customHeight="1" spans="2:8">
@@ -1888,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1903,8 +2016,8 @@
       <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>69</v>
+      <c r="H4" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" ht="38" customHeight="1" spans="2:8">
@@ -1912,7 +2025,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -1927,8 +2040,8 @@
       <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>71</v>
+      <c r="H5" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" ht="38" customHeight="1"/>
@@ -1946,4 +2059,258 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="38" customHeight="1" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="15.6363636363636" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18.9090909090909" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.3636363636364" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5454545454545" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5454545454545" style="1" customWidth="1"/>
+    <col min="9" max="12" width="15.6363636363636" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:8">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="38" customHeight="1" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="15.6363636363636" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18.9090909090909" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.3636363636364" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5454545454545" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5454545454545" style="1" customWidth="1"/>
+    <col min="9" max="12" width="15.6363636363636" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:8">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/MissFrame/LuBan/Config/Datas/ProjectExcel/MissionStep.xlsx
+++ b/MissFrame/LuBan/Config/Datas/ProjectExcel/MissionStep.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>##var</t>
   </si>
@@ -146,7 +146,7 @@
     <t>描述3</t>
   </si>
   <si>
-    <t>302</t>
+    <t>301,302</t>
   </si>
   <si>
     <t>id</t>
@@ -164,7 +164,13 @@
     <t>triggerId</t>
   </si>
   <si>
+    <t>isNeedReset</t>
+  </si>
+  <si>
     <t>Trigger.StepShowType</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
   <si>
     <t>子步骤id</t>
@@ -186,6 +192,9 @@
 表现id配置</t>
   </si>
   <si>
+    <t>执行下一个步骤时，是否需要重置到步骤执行之前的状态</t>
+  </si>
+  <si>
     <t>显示对象——101</t>
   </si>
   <si>
@@ -234,9 +243,6 @@
     <t>isActive</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>对象的根对象名称</t>
   </si>
   <si>
@@ -318,13 +324,13 @@
     <t>rootTargetName</t>
   </si>
   <si>
-    <t>targetRelativePath</t>
-  </si>
-  <si>
-    <t>operaRootName</t>
-  </si>
-  <si>
-    <t>operaRelativePath</t>
+    <t>relativeTargetPath</t>
+  </si>
+  <si>
+    <t>rootOperaName</t>
+  </si>
+  <si>
+    <t>relativeOperaPath</t>
   </si>
   <si>
     <t>看向对象的根名称</t>
@@ -339,25 +345,16 @@
     <t>看向目标——1</t>
   </si>
   <si>
+    <t>lookPoint_1</t>
+  </si>
+  <si>
     <t>MoveTarget</t>
   </si>
   <si>
-    <t>relativeTargetPath</t>
-  </si>
-  <si>
-    <t>rootOperaName</t>
-  </si>
-  <si>
-    <t>relativeOperaPath</t>
-  </si>
-  <si>
     <t>目标对象的根名称</t>
   </si>
   <si>
     <t>移动至目标——1</t>
-  </si>
-  <si>
-    <t>lookPoint_1</t>
   </si>
 </sst>
 </file>
@@ -990,7 +987,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1002,6 +999,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1380,7 +1380,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1388,7 +1388,7 @@
     <col min="1" max="1" width="13.2727272727273" customWidth="1"/>
     <col min="2" max="2" width="16.4545454545455" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.4545454545455" customWidth="1"/>
-    <col min="4" max="4" width="28.0909090909091" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28.0909090909091" style="8" customWidth="1"/>
     <col min="5" max="5" width="21.0909090909091" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1402,7 +1402,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1419,7 +1419,7 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1436,57 +1436,57 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" spans="2:5">
-      <c r="B4" s="8" t="s">
+    <row r="4" s="8" customFormat="1" spans="2:5">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="9">
+      <c r="B6" s="10">
         <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="8"/>
+      <c r="B7" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1503,7 +1503,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="53" customHeight="1"/>
@@ -1513,7 +1513,7 @@
     <col min="9" max="11" width="21.0909090909091" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1535,8 +1535,11 @@
       <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:7">
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1553,182 +1556,203 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:7">
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5">
         <v>101</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
+      <c r="C4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
         <v>102</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="F4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="5">
         <v>1</v>
       </c>
       <c r="H4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" s="3" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5">
         <v>102</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="5">
         <v>101</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>103</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="5">
         <v>1</v>
       </c>
       <c r="H5"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" s="3" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5">
         <v>103</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="5">
+        <v>102</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="4">
-        <v>102</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>2</v>
       </c>
       <c r="H6"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" customHeight="1" spans="2:7">
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:8">
       <c r="B7" s="1">
         <v>201</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:7">
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:8">
       <c r="B8" s="1">
         <v>202</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>42</v>
+      <c r="C8" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="D8" s="1">
         <v>201</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>36</v>
+      <c r="F8" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:7">
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:8">
       <c r="B9" s="1">
         <v>203</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>43</v>
+      <c r="C9" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D9" s="1">
         <v>201</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>36</v>
+      <c r="F9" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:7">
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:8">
       <c r="B10" s="1">
         <v>301</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="2:7">
-      <c r="B11" s="1">
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="2:8">
+      <c r="B11" s="6">
         <v>302</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1770,13 +1794,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" ht="38" customHeight="1" spans="1:6">
@@ -1796,7 +1820,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" ht="38" customHeight="1" spans="1:5">
@@ -1807,10 +1831,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="38" customHeight="1" spans="2:6">
@@ -1818,13 +1842,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>1</v>
@@ -1835,13 +1859,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>1</v>
@@ -1852,13 +1876,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>1</v>
@@ -1869,13 +1893,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F7" s="1" t="b">
         <v>1</v>
@@ -1929,19 +1953,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" ht="38" customHeight="1" spans="1:8">
@@ -1967,7 +1991,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" ht="38" customHeight="1" spans="1:8">
@@ -1975,25 +1999,25 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" ht="38" customHeight="1" spans="2:8">
@@ -2001,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -2016,8 +2040,8 @@
       <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>75</v>
+      <c r="H4" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" ht="38" customHeight="1" spans="2:8">
@@ -2025,7 +2049,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -2040,8 +2064,8 @@
       <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>77</v>
+      <c r="H5" s="12" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" ht="38" customHeight="1"/>
@@ -2069,7 +2093,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="38" customHeight="1" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -2094,19 +2118,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
@@ -2143,19 +2167,19 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:8">
@@ -2163,22 +2187,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H4" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2196,7 +2220,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="38" customHeight="1" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -2221,19 +2245,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
@@ -2273,16 +2297,16 @@
         <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:8">
@@ -2293,16 +2317,16 @@
         <v>91</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H4" s="1">
         <v>5</v>

--- a/MissFrame/LuBan/Config/Datas/ProjectExcel/MissionStep.xlsx
+++ b/MissFrame/LuBan/Config/Datas/ProjectExcel/MissionStep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12410" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12410"/>
   </bookViews>
   <sheets>
     <sheet name="Step" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,38 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>MissYi</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>MissYi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+该重置功能暂时为false，后续看需求是否需要增加重置的操作</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>MissYi</author>
@@ -95,6 +127,9 @@
     <t>delay</t>
   </si>
   <si>
+    <t>isNeedReset</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -110,6 +145,9 @@
     <t>float</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>##comment</t>
   </si>
   <si>
@@ -125,6 +163,9 @@
     <t>从上一个步骤到该步骤所延迟执行的时间（s/秒）</t>
   </si>
   <si>
+    <t>执行下一个步骤时，是否需要重置到步骤执行之前的状态</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -164,13 +205,7 @@
     <t>triggerId</t>
   </si>
   <si>
-    <t>isNeedReset</t>
-  </si>
-  <si>
     <t>Trigger.StepShowType</t>
-  </si>
-  <si>
-    <t>bool</t>
   </si>
   <si>
     <t>子步骤id</t>
@@ -190,9 +225,6 @@
   <si>
     <t>根据&lt;triggerType&gt;类型去对应的表中读取
 表现id配置</t>
-  </si>
-  <si>
-    <t>执行下一个步骤时，是否需要重置到步骤执行之前的状态</t>
   </si>
   <si>
     <t>显示对象——101</t>
@@ -1000,20 +1032,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1375,24 +1407,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.2727272727273" customWidth="1"/>
     <col min="2" max="2" width="16.4545454545455" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.4545454545455" customWidth="1"/>
-    <col min="4" max="4" width="28.0909090909091" style="8" customWidth="1"/>
+    <col min="4" max="4" width="28.0909090909091" style="7" customWidth="1"/>
     <col min="5" max="5" width="21.0909090909091" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" customHeight="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1402,96 +1435,115 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:6">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="79" customHeight="1" spans="1:6">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" s="7" customFormat="1" customHeight="1" spans="2:6">
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="42" spans="1:5">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" s="8" customFormat="1" spans="2:5">
-      <c r="B4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:6">
       <c r="B5" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:6">
       <c r="B6" s="10">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5">
+        <v>24</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:2">
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:2">
       <c r="B7" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1500,169 +1552,159 @@
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="53" customHeight="1"/>
   <cols>
     <col min="1" max="7" width="21.0909090909091" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.0909090909091" customWidth="1"/>
     <col min="9" max="11" width="21.0909090909091" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:8">
+    </row>
+    <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4">
         <v>101</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
         <v>102</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>1</v>
       </c>
       <c r="H4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" s="3" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4">
         <v>102</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>101</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>103</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>1</v>
       </c>
       <c r="H5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" s="3" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4">
         <v>103</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>102</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>2</v>
       </c>
       <c r="H6"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" customHeight="1" spans="2:8">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:7">
       <c r="B7" s="1">
         <v>201</v>
       </c>
@@ -1672,57 +1714,48 @@
       <c r="E7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>2</v>
       </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:8">
+    </row>
+    <row r="8" customHeight="1" spans="2:7">
       <c r="B8" s="1">
         <v>202</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="1">
         <v>201</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
       </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="2:8">
+    </row>
+    <row r="9" customHeight="1" spans="2:7">
       <c r="B9" s="1">
         <v>203</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="1">
         <v>201</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
       </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:8">
+    </row>
+    <row r="10" customHeight="1" spans="2:7">
       <c r="B10" s="1">
         <v>301</v>
       </c>
@@ -1735,12 +1768,9 @@
       <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="2:8">
-      <c r="B11" s="6">
+    </row>
+    <row r="11" customHeight="1" spans="2:7">
+      <c r="B11" s="5">
         <v>302</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1750,9 +1780,6 @@
         <v>50</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1788,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1805,30 +1832,30 @@
     </row>
     <row r="2" ht="38" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="38" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>54</v>
@@ -1926,9 +1953,9 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1942,12 +1969,12 @@
     <col min="9" max="13" width="15.6363636363636" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38" customHeight="1" spans="1:8">
+    <row r="1" ht="45" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1968,41 +1995,41 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" ht="38" customHeight="1" spans="1:8">
+    <row r="2" ht="45" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" ht="38" customHeight="1" spans="1:8">
+    <row r="3" ht="45" customHeight="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>71</v>
@@ -2020,7 +2047,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" ht="38" customHeight="1" spans="2:8">
+    <row r="4" ht="45" customHeight="1" spans="2:8">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -2044,7 +2071,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" ht="38" customHeight="1" spans="2:8">
+    <row r="5" ht="45" customHeight="1" spans="2:8">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -2093,7 +2120,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="38" customHeight="1" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -2112,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2135,36 +2162,36 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>84</v>
@@ -2239,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2262,36 +2289,36 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>90</v>

--- a/MissFrame/LuBan/Config/Datas/ProjectExcel/MissionStep.xlsx
+++ b/MissFrame/LuBan/Config/Datas/ProjectExcel/MissionStep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12410"/>
+    <workbookView windowWidth="24930" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Step" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="ShowEffectPath" sheetId="5" r:id="rId4"/>
     <sheet name="TweenLookAt" sheetId="6" r:id="rId5"/>
     <sheet name="TweenMove" sheetId="7" r:id="rId6"/>
+    <sheet name="ScannerShader" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -110,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="98">
   <si>
     <t>##var</t>
   </si>
@@ -187,7 +188,7 @@
     <t>描述3</t>
   </si>
   <si>
-    <t>301,302</t>
+    <t>301,302,303</t>
   </si>
   <si>
     <t>id</t>
@@ -266,6 +267,12 @@
     <t>TweenMove</t>
   </si>
   <si>
+    <t>设置目标着色器</t>
+  </si>
+  <si>
+    <t>ScannerShader</t>
+  </si>
+  <si>
     <t>rootName</t>
   </si>
   <si>
@@ -387,6 +394,18 @@
   </si>
   <si>
     <t>移动至目标——1</t>
+  </si>
+  <si>
+    <t>isExecute</t>
+  </si>
+  <si>
+    <t>是否执行扫描效果</t>
+  </si>
+  <si>
+    <t>显示ScannerShader</t>
+  </si>
+  <si>
+    <t>ScannerShader_01</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1038,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1048,9 +1067,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1409,7 +1425,7 @@
   <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
@@ -1520,7 +1536,7 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:6">
-      <c r="B6" s="10">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" t="s">
@@ -1550,12 +1566,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="$A5:$XFD5"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="53" customHeight="1"/>
@@ -1711,7 +1727,7 @@
       <c r="C7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -1776,10 +1792,31 @@
       <c r="C11" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>303</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:7">
+      <c r="B12" s="1">
+        <v>303</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1">
+        <v>302</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1821,13 +1858,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" ht="38" customHeight="1" spans="1:6">
@@ -1858,10 +1895,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" ht="38" customHeight="1" spans="2:6">
@@ -1869,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>1</v>
@@ -1886,13 +1923,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>1</v>
@@ -1903,13 +1940,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>1</v>
@@ -1920,13 +1957,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1" t="b">
         <v>1</v>
@@ -1955,7 +1992,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1980,19 +2017,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" ht="45" customHeight="1" spans="1:8">
@@ -2018,7 +2055,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" ht="45" customHeight="1" spans="1:8">
@@ -2026,25 +2063,25 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" ht="45" customHeight="1" spans="2:8">
@@ -2052,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -2067,8 +2104,8 @@
       <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>77</v>
+      <c r="H4" s="11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" ht="45" customHeight="1" spans="2:8">
@@ -2076,7 +2113,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -2091,8 +2128,8 @@
       <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>79</v>
+      <c r="H5" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" ht="38" customHeight="1"/>
@@ -2145,19 +2182,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
@@ -2194,19 +2231,19 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:8">
@@ -2214,19 +2251,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -2272,19 +2309,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
@@ -2321,19 +2358,19 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:8">
@@ -2341,22 +2378,125 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="H4" s="1">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="38" customHeight="1" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="2" width="15.6363636363636" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18.9090909090909" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.3636363636364" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5454545454545" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5454545454545" style="1" customWidth="1"/>
+    <col min="9" max="12" width="15.6363636363636" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:6">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/MissFrame/LuBan/Config/Datas/ProjectExcel/MissionStep.xlsx
+++ b/MissFrame/LuBan/Config/Datas/ProjectExcel/MissionStep.xlsx
@@ -14,6 +14,7 @@
     <sheet name="TweenLookAt" sheetId="6" r:id="rId5"/>
     <sheet name="TweenMove" sheetId="7" r:id="rId6"/>
     <sheet name="ScannerShader" sheetId="8" r:id="rId7"/>
+    <sheet name="Highlight" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -111,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="104">
   <si>
     <t>##var</t>
   </si>
@@ -188,7 +189,7 @@
     <t>描述3</t>
   </si>
   <si>
-    <t>301,302,303</t>
+    <t>301,302,303,304</t>
   </si>
   <si>
     <t>id</t>
@@ -204,6 +205,9 @@
   </si>
   <si>
     <t>triggerId</t>
+  </si>
+  <si>
+    <t>resetSubStepId</t>
   </si>
   <si>
     <t>Trigger.StepShowType</t>
@@ -228,6 +232,9 @@
 表现id配置</t>
   </si>
   <si>
+    <t>重置的子步骤id</t>
+  </si>
+  <si>
     <t>显示对象——101</t>
   </si>
   <si>
@@ -273,6 +280,12 @@
     <t>ScannerShader</t>
   </si>
   <si>
+    <t>物体高亮闪烁</t>
+  </si>
+  <si>
+    <t>Highlight</t>
+  </si>
+  <si>
     <t>rootName</t>
   </si>
   <si>
@@ -406,6 +419,12 @@
   </si>
   <si>
     <t>ScannerShader_01</t>
+  </si>
+  <si>
+    <t>是否显示高亮</t>
+  </si>
+  <si>
+    <t>Hight</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1057,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1048,11 +1067,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1067,6 +1092,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1436,7 +1464,7 @@
     <col min="1" max="1" width="13.2727272727273" customWidth="1"/>
     <col min="2" max="2" width="16.4545454545455" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.4545454545455" customWidth="1"/>
-    <col min="4" max="4" width="28.0909090909091" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28.0909090909091" style="9" customWidth="1"/>
     <col min="5" max="5" width="21.0909090909091" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.0909090909091" customWidth="1"/>
   </cols>
@@ -1451,7 +1479,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1471,7 +1499,7 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1491,27 +1519,27 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B4" s="9" t="s">
+    <row r="4" s="9" customFormat="1" customHeight="1" spans="2:6">
+      <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="12">
         <v>5</v>
       </c>
       <c r="F4" t="b">
@@ -1519,16 +1547,16 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:6">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="12">
         <v>3</v>
       </c>
       <c r="F5" t="b">
@@ -1542,10 +1570,10 @@
       <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="12">
         <v>3</v>
       </c>
       <c r="F6" t="b">
@@ -1553,7 +1581,7 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:2">
-      <c r="B7" s="9"/>
+      <c r="B7" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1566,88 +1594,107 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="53" customHeight="1"/>
   <cols>
     <col min="1" max="7" width="21.0909090909091" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6363636363636" customWidth="1"/>
     <col min="9" max="11" width="21.0909090909091" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" s="3" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" s="3" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="G3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" s="3" customFormat="1" customHeight="1" spans="1:11">
       <c r="A4" s="4"/>
@@ -1655,19 +1702,19 @@
         <v>101</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4">
         <v>102</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G4" s="4">
         <v>1</v>
       </c>
-      <c r="H4"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1678,7 +1725,7 @@
         <v>102</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" s="4">
         <v>101</v>
@@ -1687,12 +1734,12 @@
         <v>103</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G5" s="4">
         <v>1</v>
       </c>
-      <c r="H5"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -1703,19 +1750,19 @@
         <v>103</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D6" s="4">
         <v>102</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G6" s="4">
         <v>2</v>
       </c>
-      <c r="H6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1725,13 +1772,13 @@
         <v>201</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="G7" s="4">
         <v>2</v>
@@ -1741,14 +1788,14 @@
       <c r="B8" s="1">
         <v>202</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>45</v>
+      <c r="C8" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="D8" s="1">
         <v>201</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>39</v>
+      <c r="F8" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
@@ -1758,14 +1805,14 @@
       <c r="B9" s="1">
         <v>203</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>46</v>
+      <c r="C9" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="D9" s="1">
         <v>201</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>39</v>
+      <c r="F9" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
@@ -1776,28 +1823,28 @@
         <v>301</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:7">
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>302</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
         <v>303</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -1808,15 +1855,35 @@
         <v>303</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1">
         <v>302</v>
       </c>
+      <c r="E12" s="1">
+        <v>304</v>
+      </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:7">
+      <c r="B13" s="1">
+        <v>304</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1">
+        <v>303</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1858,13 +1925,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" ht="38" customHeight="1" spans="1:6">
@@ -1895,10 +1962,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" ht="38" customHeight="1" spans="2:6">
@@ -1906,13 +1973,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>1</v>
@@ -1923,13 +1990,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>1</v>
@@ -1940,13 +2007,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>1</v>
@@ -1957,13 +2024,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F7" s="1" t="b">
         <v>1</v>
@@ -2017,19 +2084,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" ht="45" customHeight="1" spans="1:8">
@@ -2055,7 +2122,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" ht="45" customHeight="1" spans="1:8">
@@ -2063,25 +2130,25 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" ht="45" customHeight="1" spans="2:8">
@@ -2089,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -2104,8 +2171,8 @@
       <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>79</v>
+      <c r="H4" s="14" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5" ht="45" customHeight="1" spans="2:8">
@@ -2113,7 +2180,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -2128,8 +2195,8 @@
       <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>81</v>
+      <c r="H5" s="14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" ht="38" customHeight="1"/>
@@ -2182,19 +2249,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
@@ -2231,19 +2298,19 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:8">
@@ -2251,19 +2318,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -2309,19 +2376,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
@@ -2358,19 +2425,19 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:8">
@@ -2378,19 +2445,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H4" s="1">
         <v>5</v>
@@ -2436,13 +2503,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
@@ -2473,13 +2540,13 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:6">
@@ -2487,13 +2554,114 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="38" customHeight="1" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="2" width="15.6363636363636" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18.9090909090909" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.3636363636364" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5454545454545" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5454545454545" style="1" customWidth="1"/>
+    <col min="9" max="12" width="15.6363636363636" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:6">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>1</v>

--- a/MissFrame/LuBan/Config/Datas/ProjectExcel/MissionStep.xlsx
+++ b/MissFrame/LuBan/Config/Datas/ProjectExcel/MissionStep.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="105">
   <si>
     <t>##var</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>202,203</t>
+  </si>
+  <si>
+    <t>101,102</t>
   </si>
   <si>
     <t>显示对象——202</t>
@@ -1057,7 +1060,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1070,14 +1073,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1085,6 +1091,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1095,6 +1104,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1464,7 +1476,7 @@
     <col min="1" max="1" width="13.2727272727273" customWidth="1"/>
     <col min="2" max="2" width="16.4545454545455" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.4545454545455" customWidth="1"/>
-    <col min="4" max="4" width="28.0909090909091" style="9" customWidth="1"/>
+    <col min="4" max="4" width="28.0909090909091" style="11" customWidth="1"/>
     <col min="5" max="5" width="21.0909090909091" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.0909090909091" customWidth="1"/>
   </cols>
@@ -1479,7 +1491,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1499,7 +1511,7 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1519,27 +1531,27 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" customHeight="1" spans="2:6">
-      <c r="B4" s="11" t="s">
+    <row r="4" s="11" customFormat="1" customHeight="1" spans="2:6">
+      <c r="B4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="14">
         <v>5</v>
       </c>
       <c r="F4" t="b">
@@ -1547,16 +1559,16 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:6">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="14">
         <v>3</v>
       </c>
       <c r="F5" t="b">
@@ -1570,10 +1582,10 @@
       <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="14">
         <v>3</v>
       </c>
       <c r="F6" t="b">
@@ -1581,7 +1593,7 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:2">
-      <c r="B7" s="11"/>
+      <c r="B7" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1599,202 +1611,205 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="53" customHeight="1"/>
   <cols>
     <col min="1" max="7" width="21.0909090909091" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6363636363636" customWidth="1"/>
+    <col min="8" max="8" width="21.6363636363636" style="4" customWidth="1"/>
     <col min="9" max="11" width="21.0909090909091" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" s="3" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" s="3" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" s="3" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5">
         <v>101</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
         <v>102</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>1</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" s="3" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5">
         <v>102</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>101</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>103</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>1</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" s="3" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5">
         <v>103</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>102</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>2</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" customHeight="1" spans="2:7">
+      <c r="H6" s="7"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:8">
       <c r="B7" s="1">
         <v>201</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>2</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:7">
       <c r="B8" s="1">
         <v>202</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>47</v>
+      <c r="C8" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="D8" s="1">
         <v>201</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="1">
@@ -1805,13 +1820,13 @@
       <c r="B9" s="1">
         <v>203</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>48</v>
+      <c r="C9" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="D9" s="1">
         <v>201</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="1">
@@ -1823,28 +1838,28 @@
         <v>301</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:7">
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>302</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
         <v>303</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -1855,7 +1870,7 @@
         <v>303</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1">
         <v>302</v>
@@ -1864,7 +1879,7 @@
         <v>304</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -1875,13 +1890,13 @@
         <v>304</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1">
         <v>303</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -1925,13 +1940,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" ht="38" customHeight="1" spans="1:6">
@@ -1962,10 +1977,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" ht="38" customHeight="1" spans="2:6">
@@ -1973,13 +1988,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>1</v>
@@ -1990,13 +2005,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F5" s="1" t="b">
         <v>1</v>
@@ -2007,13 +2022,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F6" s="1" t="b">
         <v>1</v>
@@ -2024,13 +2039,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="b">
         <v>1</v>
@@ -2059,7 +2074,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -2084,19 +2099,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" ht="45" customHeight="1" spans="1:8">
@@ -2122,7 +2137,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" ht="45" customHeight="1" spans="1:8">
@@ -2130,25 +2145,25 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" ht="45" customHeight="1" spans="2:8">
@@ -2156,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -2171,8 +2186,8 @@
       <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>83</v>
+      <c r="H4" s="17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" ht="45" customHeight="1" spans="2:8">
@@ -2180,7 +2195,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -2195,8 +2210,8 @@
       <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>85</v>
+      <c r="H5" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6" ht="38" customHeight="1"/>
@@ -2249,19 +2264,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
@@ -2298,19 +2313,19 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:8">
@@ -2318,19 +2333,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -2376,19 +2391,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
@@ -2425,19 +2440,19 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:8">
@@ -2445,19 +2460,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H4" s="1">
         <v>5</v>
@@ -2503,13 +2518,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
@@ -2540,13 +2555,13 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:6">
@@ -2554,13 +2569,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>1</v>
@@ -2606,13 +2621,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
@@ -2643,13 +2658,13 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:6">
@@ -2658,10 +2673,10 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F4" s="1" t="b">
         <v>1</v>
